--- a/submissions_april_2025.xlsx
+++ b/submissions_april_2025.xlsx
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>216</v>
+        <v>425</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
